--- a/biology/Médecine/L'habit_ne_fait_pas_la_femme/L'habit_ne_fait_pas_la_femme.xlsx
+++ b/biology/Médecine/L'habit_ne_fait_pas_la_femme/L'habit_ne_fait_pas_la_femme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>L%27habit_ne_fait_pas_la_femme</t>
+          <t>L'habit_ne_fait_pas_la_femme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'habit ne fait pas la femme (Change of Habit) est un film américain réalisé par William A. Graham sorti en 1969.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>L%27habit_ne_fait_pas_la_femme</t>
+          <t>L'habit_ne_fait_pas_la_femme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Afin de confirmer leur foi, trois bonnes sœurs (dont l'une Mary Tyler Moore) partent dans la société laïque déguisées en civiles. Une des sœurs rencontre alors le Dr. John Carpenter (Elvis Presley) qui s'occupe des enfants atteint d’autisme et de problèmes mentaux. Alors rapidement, sœur Michelle (Mary Tyler Moore) tombe amoureuse du docteur et se retrouve confrontée à un choix plus que difficile : l'amour pour Dieu ou l'amour de l'homme qu'elle aime ?
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>L%27habit_ne_fait_pas_la_femme</t>
+          <t>L'habit_ne_fait_pas_la_femme</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : L'habit ne fait pas la femme
 Titre original : Change of Habit
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>L%27habit_ne_fait_pas_la_femme</t>
+          <t>L'habit_ne_fait_pas_la_femme</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Elvis Presley : Dr. John Carpenter
 Mary Tyler Moore : sœur Michelle
